--- a/output/SMT/meta-llama/task_analysis_results_SMT_meta-llama_Llama-3.1-8B-Instruct_calendar_20250621.xlsx
+++ b/output/SMT/meta-llama/task_analysis_results_SMT_meta-llama_Llama-3.1-8B-Instruct_calendar_20250621.xlsx
@@ -8,24 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiqimei/Desktop/Academic/UPenn/CCB Lab/Project/calendar-planning/output/SMT/meta-llama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA1C14A5-CCB0-324B-8C08-F96E6E847CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B561D3-3CC1-D14F-A106-E93A033DF7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="760" windowWidth="28520" windowHeight="17480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Llama-3.1-8B-Instruct_SMT_meta-" sheetId="1" r:id="rId1"/>
-    <sheet name="Recovered_Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Llama-3.1-8B-Instruct_SMT_meta-" sheetId="1" r:id="rId2"/>
+    <sheet name="Recovered_Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="pass 5 missing" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Recovered_Sheet1!$A$1:$G$486</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Recovered_Sheet1!$A$1:$H$486</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="14" r:id="rId5"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="389">
   <si>
     <t>Example Name</t>
   </si>
@@ -2770,12 +2787,66 @@
 End Time: 15:30
 </t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Example Name</t>
+  </si>
+  <si>
+    <t>Pass 5 Status</t>
+  </si>
+  <si>
+    <t>wrong plan</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>no output from code</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>code wrapping not following instructions, code extraction error</t>
+  </si>
+  <si>
+    <t>conversation off track</t>
+  </si>
+  <si>
+    <t>calendar_scheduling_example_114 correct</t>
+  </si>
+  <si>
+    <t>calendar_scheduling_example_206 correct</t>
+  </si>
+  <si>
+    <t>calendar_scheduling_example_579 error, super long weird repetitive code, cannot be extracted</t>
+  </si>
+  <si>
+    <t>calendar_scheduling_example_594 correct</t>
+  </si>
+  <si>
+    <t>calendar_scheduling_example_773 correct</t>
+  </si>
+  <si>
+    <t>calendar_scheduling_example_812 error, wrong code wrapping, cannot extract code</t>
+  </si>
+  <si>
+    <t>calendar_scheduling_example_910 correct</t>
+  </si>
+  <si>
+    <t>calendar_scheduling_example_985 error, wrong code wrapping, cannot extract code</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2789,6 +2860,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2798,7 +2875,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2821,15 +2898,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2845,6 +2942,490 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="赖绮玫" refreshedDate="45831.588674999999" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="100" xr:uid="{34FAB8C4-A3CA-2A44-BED7-E97A0B6389DA}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B101" sheet="Llama-3.1-8B-Instruct_SMT_meta-"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Example Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Number of Passes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="4">
+        <n v="5"/>
+        <n v="4"/>
+        <n v="2"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="100">
+  <r>
+    <s v="calendar_scheduling_example_173"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_543"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_776"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_544"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_33"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_116"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_111"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_778"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_985"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_172"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_724"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_723"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_978"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_325"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_32"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_784"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_266"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_658"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_669"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_867"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_858"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_436"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_227"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_476"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_626"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_479"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_446"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_826"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_441"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_819"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_629"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_244"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_875"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_594"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_938"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_103"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_135"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_307"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_17"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_502"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_398"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_396"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_765"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_791"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_798"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_337"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_707"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_45"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_42"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_964"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_786"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_30"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_710"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_114"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_583"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_113"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_910"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_548"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_541"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_773"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_579"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_975"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_98"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_185"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_91"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_493"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_458"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_652"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_865"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_206"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_662"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_457"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_625"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_246"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_678"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_812"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_640"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_682"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_215"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_429"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_825"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_473"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_702"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_904"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_767"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_555"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_935"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_304"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_703"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_704"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_360"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_356"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_735"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_553"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="calendar_scheduling_example_106"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F747FC06-46BC-2D4C-957A-AB086334FD59}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Example Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3131,11 +3712,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8140D9-B3E1-C447-AC41-23EC8881529E}">
+  <dimension ref="A3:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection sqref="A1:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3953,17 +4601,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G486"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I486"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3985,8 +4638,14 @@
       <c r="G1" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4009,7 +4668,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4032,7 +4691,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4055,7 +4714,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4078,9 +4737,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4098,10 +4757,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="H6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4124,7 +4786,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -4147,7 +4809,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -4170,7 +4832,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -4193,9 +4855,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -4213,10 +4875,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="H11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -4239,7 +4904,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4262,7 +4927,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4285,7 +4950,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4308,9 +4973,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -4328,10 +4993,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+      <c r="H16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -4354,7 +5022,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -4377,7 +5045,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -4400,7 +5068,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -4423,9 +5091,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -4443,10 +5111,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="H21" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -4469,7 +5140,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -4492,7 +5163,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -4515,7 +5186,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -4538,9 +5209,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -4558,10 +5229,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="H26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -4584,7 +5258,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -4607,7 +5281,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -4630,7 +5304,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -4653,7 +5327,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -4675,8 +5349,11 @@
       <c r="G31" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -4699,7 +5376,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -4722,7 +5399,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -4745,7 +5422,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -4768,9 +5445,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -4788,10 +5465,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="H36" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -4814,7 +5494,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -4837,7 +5517,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -4860,7 +5540,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -4883,9 +5563,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -4902,11 +5582,11 @@
       <c r="F41" t="b">
         <v>0</v>
       </c>
-      <c r="G41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -4929,7 +5609,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -4952,7 +5632,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -4975,7 +5655,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -4998,7 +5678,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -5021,7 +5701,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -5044,7 +5724,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -5067,7 +5747,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -5090,7 +5770,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -5112,8 +5792,11 @@
       <c r="G50" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -5136,7 +5819,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -5159,7 +5842,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -5182,7 +5865,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -5205,9 +5888,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -5225,10 +5908,13 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="H55" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -5251,7 +5937,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -5274,7 +5960,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -5297,7 +5983,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -5320,9 +6006,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -5340,10 +6026,13 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="H60" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -5366,7 +6055,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -5389,7 +6078,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -5412,7 +6101,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -5435,9 +6124,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -5455,10 +6144,13 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="H65" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -5481,7 +6173,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -5504,7 +6196,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -5527,7 +6219,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -5550,9 +6242,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -5570,10 +6262,13 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="H70" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -5596,7 +6291,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -5619,7 +6314,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -5642,7 +6337,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -5665,9 +6360,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -5685,10 +6380,13 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="H75" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -5711,7 +6409,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -5734,7 +6432,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -5757,7 +6455,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -5780,9 +6478,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -5800,10 +6498,13 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="H80" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -5826,7 +6527,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -5849,7 +6550,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -5872,7 +6573,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -5895,9 +6596,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -5915,10 +6616,13 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="H85" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -5941,7 +6645,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -5964,7 +6668,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -5987,7 +6691,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -6010,9 +6714,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -6030,10 +6734,13 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="H90" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -6056,7 +6763,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -6079,7 +6786,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -6102,7 +6809,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -6125,9 +6832,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -6145,10 +6852,13 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="H95" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -6171,7 +6881,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -6194,7 +6904,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -6217,7 +6927,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -6240,9 +6950,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -6260,10 +6970,13 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="H100" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>22</v>
       </c>
@@ -6286,7 +6999,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -6309,7 +7022,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -6332,7 +7045,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -6355,9 +7068,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -6375,10 +7088,13 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="H105" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -6401,7 +7117,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>23</v>
       </c>
@@ -6424,7 +7140,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -6447,7 +7163,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>23</v>
       </c>
@@ -6470,9 +7186,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -6490,10 +7206,13 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="H110" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>24</v>
       </c>
@@ -6516,7 +7235,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>24</v>
       </c>
@@ -6539,7 +7258,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>24</v>
       </c>
@@ -6562,7 +7281,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>24</v>
       </c>
@@ -6585,9 +7304,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -6605,10 +7324,13 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="H115" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>25</v>
       </c>
@@ -6631,7 +7353,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>25</v>
       </c>
@@ -6654,7 +7376,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>25</v>
       </c>
@@ -6677,7 +7399,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>25</v>
       </c>
@@ -6700,9 +7422,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -6722,8 +7444,11 @@
       <c r="G120" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -6746,7 +7471,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>26</v>
       </c>
@@ -6769,7 +7494,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>26</v>
       </c>
@@ -6792,7 +7517,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>26</v>
       </c>
@@ -6815,9 +7540,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -6835,10 +7560,13 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="H125" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>27</v>
       </c>
@@ -6861,7 +7589,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -6884,7 +7612,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>27</v>
       </c>
@@ -6907,7 +7635,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>27</v>
       </c>
@@ -6930,9 +7658,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="B130">
         <v>5</v>
@@ -6950,10 +7678,13 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="H130" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>28</v>
       </c>
@@ -6976,7 +7707,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>28</v>
       </c>
@@ -6999,7 +7730,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>28</v>
       </c>
@@ -7022,7 +7753,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>28</v>
       </c>
@@ -7045,9 +7776,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B135">
         <v>5</v>
@@ -7065,10 +7796,13 @@
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="H135" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>29</v>
       </c>
@@ -7091,7 +7825,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>29</v>
       </c>
@@ -7114,7 +7848,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>29</v>
       </c>
@@ -7137,7 +7871,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>29</v>
       </c>
@@ -7160,9 +7894,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -7180,10 +7914,13 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="H140" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>30</v>
       </c>
@@ -7206,7 +7943,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>30</v>
       </c>
@@ -7229,7 +7966,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>30</v>
       </c>
@@ -7252,7 +7989,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -7275,9 +8012,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B145">
         <v>5</v>
@@ -7295,10 +8032,13 @@
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="H145" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>31</v>
       </c>
@@ -7321,7 +8061,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>31</v>
       </c>
@@ -7344,7 +8084,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>31</v>
       </c>
@@ -7367,7 +8107,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -7390,9 +8130,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B150">
         <v>5</v>
@@ -7410,10 +8150,13 @@
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="H150" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>32</v>
       </c>
@@ -7436,7 +8179,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>32</v>
       </c>
@@ -7459,7 +8202,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>32</v>
       </c>
@@ -7482,7 +8225,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>32</v>
       </c>
@@ -7505,9 +8248,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B155">
         <v>5</v>
@@ -7527,8 +8270,11 @@
       <c r="G155" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H155" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>33</v>
       </c>
@@ -7551,7 +8297,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>33</v>
       </c>
@@ -7574,7 +8320,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>33</v>
       </c>
@@ -7597,7 +8343,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>33</v>
       </c>
@@ -7620,9 +8366,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B160">
         <v>5</v>
@@ -7640,10 +8386,13 @@
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="H160" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>34</v>
       </c>
@@ -7666,7 +8415,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>34</v>
       </c>
@@ -7689,7 +8438,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>34</v>
       </c>
@@ -7712,7 +8461,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>34</v>
       </c>
@@ -7735,9 +8484,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B165">
         <v>5</v>
@@ -7755,10 +8504,13 @@
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="H165" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>35</v>
       </c>
@@ -7781,7 +8533,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>35</v>
       </c>
@@ -7804,7 +8556,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>36</v>
       </c>
@@ -7827,7 +8579,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>36</v>
       </c>
@@ -7850,7 +8602,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>36</v>
       </c>
@@ -7873,7 +8625,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>36</v>
       </c>
@@ -7896,9 +8648,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B172">
         <v>5</v>
@@ -7916,10 +8668,13 @@
         <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="H172" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>37</v>
       </c>
@@ -7942,7 +8697,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>37</v>
       </c>
@@ -7965,7 +8720,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>37</v>
       </c>
@@ -7988,7 +8743,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>37</v>
       </c>
@@ -8011,9 +8766,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B177">
         <v>5</v>
@@ -8031,10 +8786,13 @@
         <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="H177" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>38</v>
       </c>
@@ -8057,7 +8815,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>38</v>
       </c>
@@ -8080,7 +8838,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>38</v>
       </c>
@@ -8103,7 +8861,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -8126,9 +8884,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B182">
         <v>5</v>
@@ -8146,10 +8904,13 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="H182" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>39</v>
       </c>
@@ -8172,7 +8933,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>39</v>
       </c>
@@ -8195,7 +8956,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>39</v>
       </c>
@@ -8218,7 +8979,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>39</v>
       </c>
@@ -8241,9 +9002,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B187">
         <v>5</v>
@@ -8261,10 +9022,13 @@
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="H187" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>40</v>
       </c>
@@ -8287,7 +9051,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>40</v>
       </c>
@@ -8307,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>40</v>
       </c>
@@ -8327,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>40</v>
       </c>
@@ -8347,9 +9111,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B192">
         <v>5</v>
@@ -8366,8 +9130,17 @@
       <c r="F192" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G192" t="s">
+        <v>125</v>
+      </c>
+      <c r="H192" t="s">
+        <v>375</v>
+      </c>
+      <c r="I192" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>41</v>
       </c>
@@ -8390,7 +9163,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>41</v>
       </c>
@@ -8413,7 +9186,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>41</v>
       </c>
@@ -8436,7 +9209,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>41</v>
       </c>
@@ -8459,9 +9232,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="B197">
         <v>5</v>
@@ -8479,10 +9252,13 @@
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+      <c r="H197" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>42</v>
       </c>
@@ -8505,7 +9281,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>42</v>
       </c>
@@ -8528,7 +9304,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>42</v>
       </c>
@@ -8551,7 +9327,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>42</v>
       </c>
@@ -8574,9 +9350,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B202">
         <v>5</v>
@@ -8594,10 +9370,13 @@
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="H202" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>43</v>
       </c>
@@ -8620,7 +9399,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>43</v>
       </c>
@@ -8643,7 +9422,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>43</v>
       </c>
@@ -8666,7 +9445,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>43</v>
       </c>
@@ -8689,9 +9468,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B207">
         <v>5</v>
@@ -8709,10 +9488,13 @@
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="H207" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>44</v>
       </c>
@@ -8735,7 +9517,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>44</v>
       </c>
@@ -8758,7 +9540,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>44</v>
       </c>
@@ -8781,7 +9563,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>44</v>
       </c>
@@ -8804,9 +9586,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B212">
         <v>5</v>
@@ -8824,10 +9606,13 @@
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+      <c r="H212" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>45</v>
       </c>
@@ -8850,7 +9635,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>45</v>
       </c>
@@ -8873,7 +9658,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>45</v>
       </c>
@@ -8896,7 +9681,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>45</v>
       </c>
@@ -8919,9 +9704,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B217">
         <v>5</v>
@@ -8939,10 +9724,13 @@
         <v>0</v>
       </c>
       <c r="G217" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="H217" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>46</v>
       </c>
@@ -8965,7 +9753,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>46</v>
       </c>
@@ -8988,7 +9776,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>46</v>
       </c>
@@ -9011,7 +9799,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>46</v>
       </c>
@@ -9034,9 +9822,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B222">
         <v>5</v>
@@ -9054,10 +9842,13 @@
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="H222" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>47</v>
       </c>
@@ -9080,7 +9871,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>47</v>
       </c>
@@ -9103,7 +9894,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>47</v>
       </c>
@@ -9126,7 +9917,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>47</v>
       </c>
@@ -9149,9 +9940,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B227">
         <v>5</v>
@@ -9169,10 +9960,13 @@
         <v>0</v>
       </c>
       <c r="G227" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="H227" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>48</v>
       </c>
@@ -9195,7 +9989,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>48</v>
       </c>
@@ -9218,7 +10012,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>48</v>
       </c>
@@ -9241,7 +10035,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>48</v>
       </c>
@@ -9264,9 +10058,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B232">
         <v>5</v>
@@ -9284,10 +10078,13 @@
         <v>0</v>
       </c>
       <c r="G232" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="H232" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>49</v>
       </c>
@@ -9310,7 +10107,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>49</v>
       </c>
@@ -9333,7 +10130,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>49</v>
       </c>
@@ -9356,7 +10153,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>49</v>
       </c>
@@ -9379,18 +10176,18 @@
         <v>242</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B237">
         <v>5</v>
       </c>
       <c r="C237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D237" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E237" t="b">
         <v>0</v>
@@ -9399,10 +10196,16 @@
         <v>0</v>
       </c>
       <c r="G237" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="H237" t="s">
+        <v>376</v>
+      </c>
+      <c r="I237" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>50</v>
       </c>
@@ -9425,7 +10228,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>50</v>
       </c>
@@ -9448,7 +10251,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>50</v>
       </c>
@@ -9471,7 +10274,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>50</v>
       </c>
@@ -9494,9 +10297,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B242">
         <v>5</v>
@@ -9514,10 +10317,13 @@
         <v>0</v>
       </c>
       <c r="G242" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="H242" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>51</v>
       </c>
@@ -9540,7 +10346,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>51</v>
       </c>
@@ -9563,7 +10369,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>51</v>
       </c>
@@ -9586,7 +10392,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>51</v>
       </c>
@@ -9609,9 +10415,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="B247">
         <v>5</v>
@@ -9629,10 +10435,13 @@
         <v>0</v>
       </c>
       <c r="G247" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+      <c r="H247" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>52</v>
       </c>
@@ -9655,7 +10464,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>52</v>
       </c>
@@ -9678,7 +10487,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>52</v>
       </c>
@@ -9701,7 +10510,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>52</v>
       </c>
@@ -9724,9 +10533,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B252">
         <v>5</v>
@@ -9744,10 +10553,13 @@
         <v>0</v>
       </c>
       <c r="G252" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="H252" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>53</v>
       </c>
@@ -9770,7 +10582,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>53</v>
       </c>
@@ -9793,7 +10605,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>53</v>
       </c>
@@ -9816,7 +10628,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>53</v>
       </c>
@@ -9836,9 +10648,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B257">
         <v>5</v>
@@ -9856,10 +10668,13 @@
         <v>0</v>
       </c>
       <c r="G257" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="H257" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>54</v>
       </c>
@@ -9882,7 +10697,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>54</v>
       </c>
@@ -9905,7 +10720,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>54</v>
       </c>
@@ -9928,7 +10743,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>54</v>
       </c>
@@ -9951,9 +10766,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B262">
         <v>5</v>
@@ -9971,10 +10786,13 @@
         <v>0</v>
       </c>
       <c r="G262" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="H262" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>55</v>
       </c>
@@ -9997,7 +10815,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>55</v>
       </c>
@@ -10020,7 +10838,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>55</v>
       </c>
@@ -10043,7 +10861,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>55</v>
       </c>
@@ -10063,9 +10881,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B267">
         <v>5</v>
@@ -10082,8 +10900,17 @@
       <c r="F267" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G267" t="s">
+        <v>112</v>
+      </c>
+      <c r="H267" t="s">
+        <v>375</v>
+      </c>
+      <c r="I267" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>56</v>
       </c>
@@ -10106,7 +10933,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>56</v>
       </c>
@@ -10129,7 +10956,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>56</v>
       </c>
@@ -10152,7 +10979,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>56</v>
       </c>
@@ -10175,7 +11002,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>57</v>
       </c>
@@ -10198,7 +11025,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>57</v>
       </c>
@@ -10221,7 +11048,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>57</v>
       </c>
@@ -10244,7 +11071,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>57</v>
       </c>
@@ -10267,9 +11094,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B276">
         <v>5</v>
@@ -10287,10 +11114,13 @@
         <v>0</v>
       </c>
       <c r="G276" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="H276" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>58</v>
       </c>
@@ -10313,7 +11143,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>58</v>
       </c>
@@ -10336,7 +11166,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>58</v>
       </c>
@@ -10359,7 +11189,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>58</v>
       </c>
@@ -10382,9 +11212,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B281">
         <v>5</v>
@@ -10402,10 +11232,13 @@
         <v>0</v>
       </c>
       <c r="G281" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="H281" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>59</v>
       </c>
@@ -10428,7 +11261,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>59</v>
       </c>
@@ -10451,7 +11284,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>59</v>
       </c>
@@ -10474,7 +11307,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>59</v>
       </c>
@@ -10497,9 +11330,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B286">
         <v>5</v>
@@ -10517,10 +11350,13 @@
         <v>0</v>
       </c>
       <c r="G286" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="H286" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>60</v>
       </c>
@@ -10543,7 +11379,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>60</v>
       </c>
@@ -10566,7 +11402,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>61</v>
       </c>
@@ -10589,7 +11425,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>61</v>
       </c>
@@ -10609,7 +11445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>61</v>
       </c>
@@ -10629,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>61</v>
       </c>
@@ -10652,9 +11488,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B293">
         <v>5</v>
@@ -10672,10 +11508,16 @@
         <v>0</v>
       </c>
       <c r="G293" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="H293" t="s">
+        <v>375</v>
+      </c>
+      <c r="I293" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>62</v>
       </c>
@@ -10698,7 +11540,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>62</v>
       </c>
@@ -10721,7 +11563,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>62</v>
       </c>
@@ -10744,7 +11586,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>62</v>
       </c>
@@ -10767,9 +11609,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B298">
         <v>5</v>
@@ -10789,8 +11631,11 @@
       <c r="G298" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H298" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>63</v>
       </c>
@@ -10813,7 +11658,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>64</v>
       </c>
@@ -10836,7 +11681,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>64</v>
       </c>
@@ -10859,7 +11704,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>64</v>
       </c>
@@ -10882,7 +11727,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>64</v>
       </c>
@@ -10905,7 +11750,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>65</v>
       </c>
@@ -10928,7 +11773,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>65</v>
       </c>
@@ -10951,7 +11796,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>65</v>
       </c>
@@ -10974,7 +11819,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>65</v>
       </c>
@@ -10997,9 +11842,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B308">
         <v>5</v>
@@ -11017,10 +11862,13 @@
         <v>0</v>
       </c>
       <c r="G308" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="H308" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>66</v>
       </c>
@@ -11043,7 +11891,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>66</v>
       </c>
@@ -11066,7 +11914,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>66</v>
       </c>
@@ -11089,7 +11937,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>66</v>
       </c>
@@ -11112,9 +11960,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B313">
         <v>5</v>
@@ -11132,10 +11980,13 @@
         <v>0</v>
       </c>
       <c r="G313" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="H313" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>67</v>
       </c>
@@ -11158,7 +12009,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>67</v>
       </c>
@@ -11181,7 +12032,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>67</v>
       </c>
@@ -11204,7 +12055,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>67</v>
       </c>
@@ -11227,9 +12078,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="B318">
         <v>5</v>
@@ -11247,10 +12098,13 @@
         <v>0</v>
       </c>
       <c r="G318" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="H318" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>68</v>
       </c>
@@ -11273,7 +12127,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>68</v>
       </c>
@@ -11296,7 +12150,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>68</v>
       </c>
@@ -11319,7 +12173,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>68</v>
       </c>
@@ -11342,9 +12196,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B323">
         <v>5</v>
@@ -11362,10 +12216,13 @@
         <v>0</v>
       </c>
       <c r="G323" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="H323" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>69</v>
       </c>
@@ -11388,7 +12245,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>69</v>
       </c>
@@ -11411,7 +12268,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>69</v>
       </c>
@@ -11434,7 +12291,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>69</v>
       </c>
@@ -11457,9 +12314,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B328">
         <v>5</v>
@@ -11477,10 +12334,13 @@
         <v>0</v>
       </c>
       <c r="G328" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="H328" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>70</v>
       </c>
@@ -11503,7 +12363,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>70</v>
       </c>
@@ -11526,7 +12386,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>70</v>
       </c>
@@ -11549,7 +12409,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>70</v>
       </c>
@@ -11572,9 +12432,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B333">
         <v>5</v>
@@ -11592,10 +12452,13 @@
         <v>0</v>
       </c>
       <c r="G333" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+      <c r="H333" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>71</v>
       </c>
@@ -11618,7 +12481,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>71</v>
       </c>
@@ -11641,7 +12504,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>71</v>
       </c>
@@ -11664,7 +12527,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>71</v>
       </c>
@@ -11687,18 +12550,18 @@
         <v>298</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B338">
         <v>5</v>
       </c>
       <c r="C338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D338" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="E338" t="b">
         <v>0</v>
@@ -11707,10 +12570,13 @@
         <v>0</v>
       </c>
       <c r="G338" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="H338" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>72</v>
       </c>
@@ -11733,7 +12599,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>72</v>
       </c>
@@ -11756,7 +12622,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>72</v>
       </c>
@@ -11779,7 +12645,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>72</v>
       </c>
@@ -11802,9 +12668,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B343">
         <v>5</v>
@@ -11821,11 +12687,11 @@
       <c r="F343" t="b">
         <v>0</v>
       </c>
-      <c r="G343" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H343" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>73</v>
       </c>
@@ -11848,7 +12714,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>73</v>
       </c>
@@ -11871,7 +12737,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>73</v>
       </c>
@@ -11894,7 +12760,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>73</v>
       </c>
@@ -11917,7 +12783,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>74</v>
       </c>
@@ -11940,7 +12806,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>74</v>
       </c>
@@ -11963,7 +12829,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>74</v>
       </c>
@@ -11986,7 +12852,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>74</v>
       </c>
@@ -12009,9 +12875,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="B352">
         <v>5</v>
@@ -12029,10 +12895,13 @@
         <v>0</v>
       </c>
       <c r="G352" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="H352" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>75</v>
       </c>
@@ -12055,7 +12924,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>75</v>
       </c>
@@ -12078,7 +12947,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>75</v>
       </c>
@@ -12101,7 +12970,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>75</v>
       </c>
@@ -12124,9 +12993,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="B357">
         <v>5</v>
@@ -12144,10 +13013,13 @@
         <v>0</v>
       </c>
       <c r="G357" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="H357" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>76</v>
       </c>
@@ -12170,7 +13042,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>76</v>
       </c>
@@ -12193,7 +13065,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>76</v>
       </c>
@@ -12216,7 +13088,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>76</v>
       </c>
@@ -12239,9 +13111,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B362">
         <v>5</v>
@@ -12259,10 +13131,13 @@
         <v>0</v>
       </c>
       <c r="G362" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="H362" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>77</v>
       </c>
@@ -12285,7 +13160,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>77</v>
       </c>
@@ -12308,7 +13183,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>77</v>
       </c>
@@ -12331,7 +13206,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>77</v>
       </c>
@@ -12354,9 +13229,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B367">
         <v>5</v>
@@ -12374,10 +13249,13 @@
         <v>0</v>
       </c>
       <c r="G367" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="H367" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>78</v>
       </c>
@@ -12400,7 +13278,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>78</v>
       </c>
@@ -12423,7 +13301,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>78</v>
       </c>
@@ -12446,7 +13324,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>78</v>
       </c>
@@ -12469,9 +13347,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B372">
         <v>5</v>
@@ -12489,10 +13367,13 @@
         <v>0</v>
       </c>
       <c r="G372" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="H372" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>79</v>
       </c>
@@ -12515,7 +13396,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>79</v>
       </c>
@@ -12538,7 +13419,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>79</v>
       </c>
@@ -12561,7 +13442,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>79</v>
       </c>
@@ -12584,7 +13465,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>80</v>
       </c>
@@ -12607,7 +13488,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>80</v>
       </c>
@@ -12630,7 +13511,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>80</v>
       </c>
@@ -12653,7 +13534,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>80</v>
       </c>
@@ -12676,9 +13557,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -12696,10 +13577,13 @@
         <v>0</v>
       </c>
       <c r="G381" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="H381" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>81</v>
       </c>
@@ -12722,7 +13606,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>81</v>
       </c>
@@ -12745,7 +13629,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>81</v>
       </c>
@@ -12768,7 +13652,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>81</v>
       </c>
@@ -12791,9 +13675,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="B386">
         <v>5</v>
@@ -12811,10 +13695,13 @@
         <v>0</v>
       </c>
       <c r="G386" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="H386" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>82</v>
       </c>
@@ -12837,7 +13724,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>82</v>
       </c>
@@ -12860,7 +13747,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>82</v>
       </c>
@@ -12883,7 +13770,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>82</v>
       </c>
@@ -12906,9 +13793,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B391">
         <v>5</v>
@@ -12926,10 +13813,13 @@
         <v>0</v>
       </c>
       <c r="G391" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="H391" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>83</v>
       </c>
@@ -12952,7 +13842,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>83</v>
       </c>
@@ -12975,7 +13865,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>83</v>
       </c>
@@ -12998,7 +13888,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>83</v>
       </c>
@@ -13021,9 +13911,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B396">
         <v>5</v>
@@ -13041,10 +13931,13 @@
         <v>0</v>
       </c>
       <c r="G396" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="H396" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>84</v>
       </c>
@@ -13067,7 +13960,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>84</v>
       </c>
@@ -13090,7 +13983,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>84</v>
       </c>
@@ -13113,7 +14006,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>84</v>
       </c>
@@ -13136,9 +14029,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="B401">
         <v>5</v>
@@ -13156,10 +14049,13 @@
         <v>0</v>
       </c>
       <c r="G401" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="H401" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>85</v>
       </c>
@@ -13182,7 +14078,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>85</v>
       </c>
@@ -13205,7 +14101,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>85</v>
       </c>
@@ -13228,7 +14124,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>85</v>
       </c>
@@ -13251,9 +14147,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="B406">
         <v>5</v>
@@ -13271,10 +14167,13 @@
         <v>0</v>
       </c>
       <c r="G406" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="H406" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>86</v>
       </c>
@@ -13297,7 +14196,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>86</v>
       </c>
@@ -13320,7 +14219,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>86</v>
       </c>
@@ -13343,7 +14242,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>86</v>
       </c>
@@ -13366,9 +14265,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="B411">
         <v>5</v>
@@ -13386,10 +14285,13 @@
         <v>0</v>
       </c>
       <c r="G411" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="H411" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>87</v>
       </c>
@@ -13412,7 +14314,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>87</v>
       </c>
@@ -13435,7 +14337,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>87</v>
       </c>
@@ -13458,7 +14360,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>87</v>
       </c>
@@ -13481,9 +14383,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B416">
         <v>5</v>
@@ -13501,10 +14403,13 @@
         <v>0</v>
       </c>
       <c r="G416" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="H416" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>88</v>
       </c>
@@ -13527,7 +14432,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>88</v>
       </c>
@@ -13550,7 +14455,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>88</v>
       </c>
@@ -13573,7 +14478,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>88</v>
       </c>
@@ -13596,9 +14501,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B421">
         <v>5</v>
@@ -13616,10 +14521,13 @@
         <v>0</v>
       </c>
       <c r="G421" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+      <c r="H421" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>89</v>
       </c>
@@ -13642,7 +14550,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>89</v>
       </c>
@@ -13665,7 +14573,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>89</v>
       </c>
@@ -13688,7 +14596,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>89</v>
       </c>
@@ -13711,9 +14619,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B426">
         <v>5</v>
@@ -13731,10 +14639,13 @@
         <v>0</v>
       </c>
       <c r="G426" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="H426" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>90</v>
       </c>
@@ -13757,7 +14668,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>90</v>
       </c>
@@ -13780,7 +14691,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>90</v>
       </c>
@@ -13803,7 +14714,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>90</v>
       </c>
@@ -13826,9 +14737,9 @@
         <v>348</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="B431">
         <v>5</v>
@@ -13846,10 +14757,13 @@
         <v>0</v>
       </c>
       <c r="G431" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="H431" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>91</v>
       </c>
@@ -13872,7 +14786,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>91</v>
       </c>
@@ -13895,7 +14809,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>91</v>
       </c>
@@ -13918,7 +14832,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>91</v>
       </c>
@@ -13941,9 +14855,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B436">
         <v>5</v>
@@ -13961,10 +14875,13 @@
         <v>0</v>
       </c>
       <c r="G436" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="H436" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>92</v>
       </c>
@@ -13987,7 +14904,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>92</v>
       </c>
@@ -14010,7 +14927,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>92</v>
       </c>
@@ -14033,7 +14950,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>92</v>
       </c>
@@ -14056,9 +14973,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="B441">
         <v>5</v>
@@ -14076,10 +14993,13 @@
         <v>0</v>
       </c>
       <c r="G441" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="H441" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>93</v>
       </c>
@@ -14102,7 +15022,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>93</v>
       </c>
@@ -14125,7 +15045,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>93</v>
       </c>
@@ -14148,7 +15068,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>93</v>
       </c>
@@ -14171,9 +15091,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="B446">
         <v>5</v>
@@ -14193,8 +15113,11 @@
       <c r="G446" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H446" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>94</v>
       </c>
@@ -14217,7 +15140,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>94</v>
       </c>
@@ -14240,7 +15163,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>94</v>
       </c>
@@ -14263,7 +15186,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>94</v>
       </c>
@@ -14286,9 +15209,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B451">
         <v>5</v>
@@ -14306,10 +15229,13 @@
         <v>0</v>
       </c>
       <c r="G451" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="H451" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>95</v>
       </c>
@@ -14332,7 +15258,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>95</v>
       </c>
@@ -14355,7 +15281,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>95</v>
       </c>
@@ -14378,7 +15304,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>95</v>
       </c>
@@ -14401,9 +15327,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B456">
         <v>5</v>
@@ -14421,10 +15347,13 @@
         <v>0</v>
       </c>
       <c r="G456" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+      <c r="H456" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>96</v>
       </c>
@@ -14447,7 +15376,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>96</v>
       </c>
@@ -14470,7 +15399,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>96</v>
       </c>
@@ -14493,7 +15422,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>96</v>
       </c>
@@ -14516,9 +15445,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B461">
         <v>5</v>
@@ -14536,10 +15465,13 @@
         <v>0</v>
       </c>
       <c r="G461" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="H461" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>97</v>
       </c>
@@ -14562,7 +15494,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>97</v>
       </c>
@@ -14585,7 +15517,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>97</v>
       </c>
@@ -14608,7 +15540,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>97</v>
       </c>
@@ -14631,9 +15563,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="B466">
         <v>5</v>
@@ -14651,10 +15583,13 @@
         <v>0</v>
       </c>
       <c r="G466" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="H466" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>98</v>
       </c>
@@ -14677,7 +15612,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>98</v>
       </c>
@@ -14700,7 +15635,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>98</v>
       </c>
@@ -14723,7 +15658,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>98</v>
       </c>
@@ -14746,9 +15681,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B471">
         <v>5</v>
@@ -14766,10 +15701,13 @@
         <v>0</v>
       </c>
       <c r="G471" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="H471" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>99</v>
       </c>
@@ -14792,7 +15730,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>99</v>
       </c>
@@ -14815,7 +15753,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>99</v>
       </c>
@@ -14838,7 +15776,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>99</v>
       </c>
@@ -14861,9 +15799,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="B476">
         <v>5</v>
@@ -14883,8 +15821,11 @@
       <c r="G476" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H476" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>100</v>
       </c>
@@ -14907,7 +15848,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>100</v>
       </c>
@@ -14930,7 +15871,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>100</v>
       </c>
@@ -14953,7 +15894,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>100</v>
       </c>
@@ -14976,9 +15917,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="B481">
         <v>5</v>
@@ -14996,10 +15937,13 @@
         <v>0</v>
       </c>
       <c r="G481" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="H481" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>101</v>
       </c>
@@ -15022,7 +15966,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>101</v>
       </c>
@@ -15045,7 +15989,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>101</v>
       </c>
@@ -15068,7 +16012,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>101</v>
       </c>
@@ -15091,9 +16035,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B486">
         <v>5</v>
@@ -15111,11 +16055,81 @@
         <v>0</v>
       </c>
       <c r="G486" t="s">
-        <v>370</v>
+        <v>283</v>
+      </c>
+      <c r="H486" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G486" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:H486" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="wrong plan"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A891B033-D082-3C4C-B131-3CA651806CFF}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>